--- a/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_09_03 17_40_17.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_09_03 17_40_17.xlsx
@@ -6950,13 +6950,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B748978-7E2F-4F12-A126-28BF6C9A233D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FEBF5CA-CAD5-438F-84F9-727D8F1B7C2B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{832EE9AE-B5EA-4D3C-8E39-CB142D0CAB2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FEE4EA-8CBE-4095-B5D2-133E702610C9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69E662A6-ECAF-4614-87E6-3165E01FE58B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4968018-AF5A-4435-ADF5-53E5F660496C}"/>
 </file>
--- a/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_09_03 17_40_17.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_09_03 17_40_17.xlsx
@@ -6950,13 +6950,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FEBF5CA-CAD5-438F-84F9-727D8F1B7C2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{505E514A-265C-4CC2-87BA-B08400B649B8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FEE4EA-8CBE-4095-B5D2-133E702610C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58C60349-AC96-4147-9167-2F0620AFB070}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4968018-AF5A-4435-ADF5-53E5F660496C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49080AFE-C095-434E-97C4-145A7F4437A4}"/>
 </file>